--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryomanpatel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B8CD6-AC4F-EF4E-99F1-C9BF495D79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55032A4-F7EF-714B-B91E-67D14A68E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 User Report" sheetId="1" r:id="rId1"/>
@@ -2351,77 +2351,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2437,6 +2366,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3200,8 +3200,8 @@
   </sheetPr>
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3213,23 +3213,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="13">
-      <c r="B2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="95"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="100"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="6" spans="2:6" ht="19.5" customHeight="1"/>
     <row r="7" spans="2:6" ht="24">
-      <c r="D7" s="96"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="2:6" ht="29">
       <c r="B8" s="2" t="s">
@@ -3240,14 +3240,14 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:6" ht="23">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="100"/>
     </row>
     <row r="10" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="2:6" ht="13">
       <c r="B11" s="5" t="s">
@@ -3297,7 +3297,7 @@
       <c r="B17" s="13">
         <v>1</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -3309,7 +3309,7 @@
       <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="94" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -3321,7 +3321,7 @@
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="94" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -3398,8 +3398,8 @@
   </sheetPr>
   <dimension ref="A3:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3411,83 +3411,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="13">
-      <c r="E3" s="102"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="103" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="13">
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="107"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="13">
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="107"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="13">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
+      <c r="C6" s="116"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="1:16" ht="13">
-      <c r="A7" s="100"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:16" ht="50.25" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -3495,15 +3495,15 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:16" ht="45" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -3511,111 +3511,111 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:16" ht="15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:16" ht="15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:16" ht="147" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:16" ht="15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
     </row>
     <row r="14" spans="1:16" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:16" ht="13">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
+      <c r="C15" s="116"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
     </row>
     <row r="16" spans="1:16" ht="13">
-      <c r="A16" s="100"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
     </row>
     <row r="17" spans="1:14" ht="15">
       <c r="A17" s="20" t="s">
@@ -3623,386 +3623,381 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
     </row>
     <row r="19" spans="1:14" ht="15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
     </row>
     <row r="21" spans="1:14" ht="169.5" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
     </row>
     <row r="22" spans="1:14" ht="15">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
     </row>
     <row r="23" spans="1:14" ht="15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
     </row>
     <row r="24" spans="1:14" ht="16">
-      <c r="A24" s="101"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
     </row>
     <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="95"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
     </row>
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
     </row>
     <row r="28" spans="1:14" ht="16">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
     </row>
     <row r="29" spans="1:14" ht="16">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
     </row>
     <row r="30" spans="1:14" ht="16">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="109"/>
     </row>
     <row r="31" spans="1:14" ht="13">
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="49" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="95"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
     </row>
     <row r="50" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
     </row>
     <row r="51" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
     </row>
     <row r="52" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
     </row>
     <row r="53" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="95"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
     </row>
     <row r="54" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
+      <c r="P54" s="100"/>
     </row>
     <row r="55" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="95"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
     </row>
     <row r="56" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="95"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
     </row>
     <row r="57" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
     </row>
     <row r="58" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
     </row>
     <row r="59" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
     </row>
     <row r="60" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="95"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
     </row>
     <row r="61" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="95"/>
-      <c r="N61" s="95"/>
-      <c r="O61" s="95"/>
-      <c r="P61" s="95"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
     </row>
     <row r="62" spans="7:16" ht="15.75" customHeight="1">
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E3:M12"/>
-    <mergeCell ref="N3:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="K13:N14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="E15:N28"/>
@@ -4010,6 +4005,11 @@
     <mergeCell ref="G49:P62"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="C24:D27"/>
+    <mergeCell ref="E3:M12"/>
+    <mergeCell ref="N3:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="K13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4023,14 +4023,16 @@
   </sheetPr>
   <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="29" max="29" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="16">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -4119,7 +4121,7 @@
       <c r="AD1" s="23"/>
       <c r="AE1" s="23"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="16">
       <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
@@ -4138,11 +4140,11 @@
       <c r="F2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="23"/>
       <c r="K2" s="25" t="b">
         <v>0</v>
@@ -4153,10 +4155,10 @@
       <c r="M2" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="95"/>
+      <c r="O2" s="100"/>
       <c r="P2" s="23" t="s">
         <v>69</v>
       </c>
@@ -4166,10 +4168,10 @@
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="95"/>
+      <c r="V2" s="100"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="25" t="b">
@@ -4186,7 +4188,7 @@
       <c r="AD2" s="25"/>
       <c r="AE2" s="25"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="16">
       <c r="A3" s="23" t="s">
         <v>71</v>
       </c>
@@ -4205,11 +4207,11 @@
       <c r="F3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="23"/>
       <c r="K3" s="25" t="b">
         <v>0</v>
@@ -4220,23 +4222,23 @@
       <c r="M3" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="100"/>
+      <c r="P3" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="95"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
-      <c r="U3" s="117" t="s">
+      <c r="U3" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="95"/>
+      <c r="V3" s="100"/>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="25" t="b">
@@ -4253,7 +4255,7 @@
       <c r="AD3" s="25"/>
       <c r="AE3" s="25"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
@@ -4266,10 +4268,10 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="25" t="b">
@@ -4281,14 +4283,14 @@
       <c r="M4" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="117" t="s">
+      <c r="O4" s="100"/>
+      <c r="P4" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="95"/>
+      <c r="Q4" s="100"/>
       <c r="R4" s="25" t="b">
         <v>0</v>
       </c>
@@ -4316,7 +4318,7 @@
       <c r="AD4" s="25"/>
       <c r="AE4" s="25"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="16">
       <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
@@ -4335,11 +4337,11 @@
       <c r="F5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="23"/>
       <c r="K5" s="25" t="b">
         <v>0</v>
@@ -4350,23 +4352,23 @@
       <c r="M5" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="117" t="s">
+      <c r="N5" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="117" t="s">
+      <c r="O5" s="100"/>
+      <c r="P5" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="95"/>
+      <c r="Q5" s="100"/>
       <c r="R5" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
-      <c r="U5" s="117" t="s">
+      <c r="U5" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="95"/>
+      <c r="V5" s="100"/>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
       <c r="Y5" s="25" t="b">
@@ -4383,7 +4385,7 @@
       <c r="AD5" s="25"/>
       <c r="AE5" s="25"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="23" t="s">
         <v>86</v>
       </c>
@@ -4402,11 +4404,11 @@
       <c r="F6" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="23"/>
       <c r="K6" s="25" t="b">
         <v>0</v>
@@ -4417,10 +4419,10 @@
       <c r="M6" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="117" t="s">
+      <c r="N6" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="23" t="s">
         <v>69</v>
       </c>
@@ -4430,10 +4432,10 @@
       </c>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="117" t="s">
+      <c r="U6" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="95"/>
+      <c r="V6" s="100"/>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="25" t="b">
@@ -4450,7 +4452,7 @@
       <c r="AD6" s="25"/>
       <c r="AE6" s="25"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="23" t="s">
         <v>91</v>
       </c>
@@ -4469,11 +4471,11 @@
       <c r="F7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="23"/>
       <c r="K7" s="25" t="b">
         <v>0</v>
@@ -4484,10 +4486,10 @@
       <c r="M7" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="117" t="s">
+      <c r="N7" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="23" t="s">
         <v>96</v>
       </c>
@@ -4497,10 +4499,10 @@
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
-      <c r="U7" s="117" t="s">
+      <c r="U7" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="95"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="25" t="b">
@@ -4517,7 +4519,7 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" ht="16">
       <c r="A8" s="23" t="s">
         <v>97</v>
       </c>
@@ -4536,11 +4538,11 @@
       <c r="F8" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
       <c r="J8" s="23"/>
       <c r="K8" s="25" t="b">
         <v>0</v>
@@ -4551,10 +4553,10 @@
       <c r="M8" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N8" s="117" t="s">
+      <c r="N8" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="23" t="s">
         <v>69</v>
       </c>
@@ -4564,10 +4566,10 @@
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="95"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="25" t="b">
@@ -4584,7 +4586,7 @@
       <c r="AD8" s="25"/>
       <c r="AE8" s="25"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="16">
       <c r="A9" s="23" t="s">
         <v>102</v>
       </c>
@@ -4603,11 +4605,11 @@
       <c r="F9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="23"/>
       <c r="K9" s="25" t="b">
         <v>0</v>
@@ -4618,23 +4620,23 @@
       <c r="M9" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="117" t="s">
+      <c r="O9" s="100"/>
+      <c r="P9" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="95"/>
+      <c r="Q9" s="100"/>
       <c r="R9" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="95"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="25" t="b">
@@ -4651,7 +4653,7 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" ht="16">
       <c r="A10" s="23" t="s">
         <v>107</v>
       </c>
@@ -4670,11 +4672,11 @@
       <c r="F10" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="23"/>
       <c r="K10" s="25" t="b">
         <v>0</v>
@@ -4685,23 +4687,23 @@
       <c r="M10" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N10" s="117" t="s">
+      <c r="N10" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="117" t="s">
+      <c r="O10" s="100"/>
+      <c r="P10" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="95"/>
+      <c r="Q10" s="100"/>
       <c r="R10" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
-      <c r="U10" s="117" t="s">
+      <c r="U10" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="95"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="25" t="b">
@@ -4718,7 +4720,7 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="16">
       <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
@@ -4737,11 +4739,11 @@
       <c r="F11" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="23"/>
       <c r="K11" s="25" t="b">
         <v>0</v>
@@ -4752,23 +4754,23 @@
       <c r="M11" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N11" s="117" t="s">
+      <c r="N11" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="117" t="s">
+      <c r="O11" s="100"/>
+      <c r="P11" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="95"/>
+      <c r="Q11" s="100"/>
       <c r="R11" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="117" t="s">
+      <c r="U11" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="95"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="23"/>
       <c r="X11" s="23"/>
       <c r="Y11" s="25" t="b">
@@ -4785,7 +4787,7 @@
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" ht="16">
       <c r="A12" s="23" t="s">
         <v>117</v>
       </c>
@@ -4804,11 +4806,11 @@
       <c r="F12" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="23"/>
       <c r="K12" s="25" t="b">
         <v>0</v>
@@ -4819,23 +4821,23 @@
       <c r="M12" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="117" t="s">
+      <c r="N12" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="95"/>
-      <c r="P12" s="117" t="s">
+      <c r="O12" s="100"/>
+      <c r="P12" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="95"/>
+      <c r="Q12" s="100"/>
       <c r="R12" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
-      <c r="U12" s="117" t="s">
+      <c r="U12" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="95"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="25" t="b">
@@ -4852,7 +4854,7 @@
       <c r="AD12" s="25"/>
       <c r="AE12" s="25"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" ht="16">
       <c r="A13" s="23" t="s">
         <v>122</v>
       </c>
@@ -4871,11 +4873,11 @@
       <c r="F13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="23"/>
       <c r="K13" s="25" t="b">
         <v>0</v>
@@ -4886,23 +4888,23 @@
       <c r="M13" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="117" t="s">
+      <c r="N13" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="95"/>
-      <c r="P13" s="117" t="s">
+      <c r="O13" s="100"/>
+      <c r="P13" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="95"/>
+      <c r="Q13" s="100"/>
       <c r="R13" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="117" t="s">
+      <c r="U13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="95"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="25" t="b">
@@ -4919,7 +4921,7 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="25"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" ht="16">
       <c r="A14" s="23" t="s">
         <v>127</v>
       </c>
@@ -4938,11 +4940,11 @@
       <c r="F14" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="23"/>
       <c r="K14" s="25" t="b">
         <v>0</v>
@@ -4953,10 +4955,10 @@
       <c r="M14" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="117" t="s">
+      <c r="N14" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="95"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="23" t="s">
         <v>69</v>
       </c>
@@ -4966,10 +4968,10 @@
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="117" t="s">
+      <c r="U14" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V14" s="95"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="25" t="b">
@@ -4986,7 +4988,7 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="25"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" ht="16">
       <c r="A15" s="23" t="s">
         <v>131</v>
       </c>
@@ -5005,11 +5007,11 @@
       <c r="F15" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="23"/>
       <c r="K15" s="25" t="b">
         <v>0</v>
@@ -5020,23 +5022,23 @@
       <c r="M15" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="117" t="s">
+      <c r="N15" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="95"/>
-      <c r="P15" s="117" t="s">
+      <c r="O15" s="100"/>
+      <c r="P15" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="95"/>
+      <c r="Q15" s="100"/>
       <c r="R15" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
-      <c r="U15" s="117" t="s">
+      <c r="U15" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V15" s="95"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="25" t="b">
@@ -5053,7 +5055,7 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" ht="16">
       <c r="A16" s="23" t="s">
         <v>136</v>
       </c>
@@ -5072,11 +5074,11 @@
       <c r="F16" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="23"/>
       <c r="K16" s="25" t="b">
         <v>0</v>
@@ -5087,10 +5089,10 @@
       <c r="M16" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="117" t="s">
+      <c r="N16" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="95"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="23" t="s">
         <v>69</v>
       </c>
@@ -5100,10 +5102,10 @@
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="117" t="s">
+      <c r="U16" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V16" s="95"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="25" t="b">
@@ -5120,7 +5122,7 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" ht="16">
       <c r="A17" s="23" t="s">
         <v>142</v>
       </c>
@@ -5139,11 +5141,11 @@
       <c r="F17" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="23"/>
       <c r="K17" s="25" t="b">
         <v>0</v>
@@ -5154,10 +5156,10 @@
       <c r="M17" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="95"/>
+      <c r="O17" s="100"/>
       <c r="P17" s="23" t="s">
         <v>69</v>
       </c>
@@ -5167,10 +5169,10 @@
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
-      <c r="U17" s="117" t="s">
+      <c r="U17" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="95"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="25" t="b">
@@ -5187,7 +5189,7 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="25"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" ht="16">
       <c r="A18" s="23" t="s">
         <v>147</v>
       </c>
@@ -5206,11 +5208,11 @@
       <c r="F18" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="23"/>
       <c r="K18" s="25" t="b">
         <v>0</v>
@@ -5221,23 +5223,23 @@
       <c r="M18" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="117" t="s">
+      <c r="O18" s="100"/>
+      <c r="P18" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q18" s="95"/>
+      <c r="Q18" s="100"/>
       <c r="R18" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
-      <c r="U18" s="117" t="s">
+      <c r="U18" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="95"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
       <c r="Y18" s="25" t="b">
@@ -5254,7 +5256,7 @@
       <c r="AD18" s="25"/>
       <c r="AE18" s="25"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" ht="16">
       <c r="A19" s="23" t="s">
         <v>152</v>
       </c>
@@ -5273,11 +5275,11 @@
       <c r="F19" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="23"/>
       <c r="K19" s="25" t="b">
         <v>0</v>
@@ -5288,23 +5290,23 @@
       <c r="M19" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="117" t="s">
+      <c r="N19" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="117" t="s">
+      <c r="O19" s="100"/>
+      <c r="P19" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="95"/>
+      <c r="Q19" s="100"/>
       <c r="R19" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="117" t="s">
+      <c r="U19" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="95"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="25" t="b">
@@ -5321,7 +5323,7 @@
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" ht="16">
       <c r="A20" s="23" t="s">
         <v>157</v>
       </c>
@@ -5340,11 +5342,11 @@
       <c r="F20" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="23"/>
       <c r="K20" s="25" t="b">
         <v>0</v>
@@ -5355,23 +5357,23 @@
       <c r="M20" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="117" t="s">
+      <c r="N20" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="117" t="s">
+      <c r="O20" s="100"/>
+      <c r="P20" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="95"/>
+      <c r="Q20" s="100"/>
       <c r="R20" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
-      <c r="U20" s="117" t="s">
+      <c r="U20" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V20" s="95"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="25" t="b">
@@ -5388,7 +5390,7 @@
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" ht="16">
       <c r="A21" s="23" t="s">
         <v>162</v>
       </c>
@@ -5407,11 +5409,11 @@
       <c r="F21" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="23"/>
       <c r="K21" s="25" t="b">
         <v>0</v>
@@ -5422,23 +5424,23 @@
       <c r="M21" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="117" t="s">
+      <c r="N21" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="117" t="s">
+      <c r="O21" s="100"/>
+      <c r="P21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="95"/>
+      <c r="Q21" s="100"/>
       <c r="R21" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
-      <c r="U21" s="117" t="s">
+      <c r="U21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V21" s="95"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="25" t="b">
@@ -5455,7 +5457,7 @@
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" ht="16">
       <c r="A22" s="23" t="s">
         <v>167</v>
       </c>
@@ -5474,11 +5476,11 @@
       <c r="F22" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="23"/>
       <c r="K22" s="25" t="b">
         <v>0</v>
@@ -5489,10 +5491,10 @@
       <c r="M22" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="117" t="s">
+      <c r="N22" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="23" t="s">
         <v>69</v>
       </c>
@@ -5502,10 +5504,10 @@
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
-      <c r="U22" s="117" t="s">
+      <c r="U22" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V22" s="95"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="25" t="b">
@@ -5522,7 +5524,7 @@
       <c r="AD22" s="25"/>
       <c r="AE22" s="25"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" ht="16">
       <c r="A23" s="23" t="s">
         <v>172</v>
       </c>
@@ -5541,11 +5543,11 @@
       <c r="F23" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G23" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="23"/>
       <c r="K23" s="25" t="b">
         <v>0</v>
@@ -5556,10 +5558,10 @@
       <c r="M23" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="117" t="s">
+      <c r="N23" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="95"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="23" t="s">
         <v>69</v>
       </c>
@@ -5569,10 +5571,10 @@
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
-      <c r="U23" s="117" t="s">
+      <c r="U23" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="95"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="25" t="b">
@@ -5589,7 +5591,7 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" ht="16">
       <c r="A24" s="23" t="s">
         <v>177</v>
       </c>
@@ -5608,10 +5610,10 @@
       <c r="F24" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="95"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="25" t="b">
@@ -5623,10 +5625,10 @@
       <c r="M24" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N24" s="117" t="s">
+      <c r="N24" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="95"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="23" t="s">
         <v>69</v>
       </c>
@@ -5636,10 +5638,10 @@
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="117" t="s">
+      <c r="U24" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V24" s="95"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="25" t="b">
@@ -5656,7 +5658,7 @@
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" ht="16">
       <c r="A25" s="23" t="s">
         <v>182</v>
       </c>
@@ -5675,11 +5677,11 @@
       <c r="F25" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="23"/>
       <c r="K25" s="25" t="b">
         <v>0</v>
@@ -5690,23 +5692,23 @@
       <c r="M25" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="117" t="s">
+      <c r="N25" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="95"/>
-      <c r="P25" s="117" t="s">
+      <c r="O25" s="100"/>
+      <c r="P25" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="95"/>
+      <c r="Q25" s="100"/>
       <c r="R25" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="117" t="s">
+      <c r="U25" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V25" s="95"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
       <c r="Y25" s="25" t="b">
@@ -5723,7 +5725,7 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" ht="16">
       <c r="A26" s="23" t="s">
         <v>187</v>
       </c>
@@ -5742,11 +5744,11 @@
       <c r="F26" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="23"/>
       <c r="K26" s="25" t="b">
         <v>0</v>
@@ -5757,10 +5759,10 @@
       <c r="M26" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="117" t="s">
+      <c r="N26" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="95"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="23" t="s">
         <v>69</v>
       </c>
@@ -5770,10 +5772,10 @@
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="117" t="s">
+      <c r="U26" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V26" s="95"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="25" t="b">
@@ -5790,7 +5792,7 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="25"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" ht="16">
       <c r="A27" s="23" t="s">
         <v>192</v>
       </c>
@@ -5809,10 +5811,10 @@
       <c r="F27" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="117" t="s">
+      <c r="G27" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="H27" s="95"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="25" t="b">
@@ -5824,23 +5826,23 @@
       <c r="M27" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N27" s="117" t="s">
+      <c r="N27" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="95"/>
-      <c r="P27" s="117" t="s">
+      <c r="O27" s="100"/>
+      <c r="P27" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="95"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
-      <c r="U27" s="117" t="s">
+      <c r="U27" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V27" s="95"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
       <c r="Y27" s="25" t="b">
@@ -5857,7 +5859,7 @@
       <c r="AD27" s="25"/>
       <c r="AE27" s="25"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" ht="16">
       <c r="A28" s="23" t="s">
         <v>197</v>
       </c>
@@ -5876,11 +5878,11 @@
       <c r="F28" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="117" t="s">
+      <c r="G28" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="23"/>
       <c r="K28" s="25" t="b">
         <v>0</v>
@@ -5891,10 +5893,10 @@
       <c r="M28" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N28" s="117" t="s">
+      <c r="N28" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="95"/>
+      <c r="O28" s="100"/>
       <c r="P28" s="23" t="s">
         <v>69</v>
       </c>
@@ -5904,10 +5906,10 @@
       </c>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
-      <c r="U28" s="117" t="s">
+      <c r="U28" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V28" s="95"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
       <c r="Y28" s="25" t="b">
@@ -5924,7 +5926,7 @@
       <c r="AD28" s="25"/>
       <c r="AE28" s="25"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="16">
       <c r="A29" s="23" t="s">
         <v>202</v>
       </c>
@@ -5943,11 +5945,11 @@
       <c r="F29" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="23"/>
       <c r="K29" s="25" t="b">
         <v>0</v>
@@ -5958,23 +5960,23 @@
       <c r="M29" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N29" s="117" t="s">
+      <c r="N29" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="95"/>
-      <c r="P29" s="117" t="s">
+      <c r="O29" s="100"/>
+      <c r="P29" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q29" s="95"/>
+      <c r="Q29" s="100"/>
       <c r="R29" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
-      <c r="U29" s="117" t="s">
+      <c r="U29" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V29" s="95"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
       <c r="Y29" s="25" t="b">
@@ -5991,7 +5993,7 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="25"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" ht="16">
       <c r="A30" s="23" t="s">
         <v>207</v>
       </c>
@@ -6010,11 +6012,11 @@
       <c r="F30" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="23"/>
       <c r="K30" s="25" t="b">
         <v>0</v>
@@ -6025,10 +6027,10 @@
       <c r="M30" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N30" s="117" t="s">
+      <c r="N30" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="95"/>
+      <c r="O30" s="100"/>
       <c r="P30" s="23" t="s">
         <v>69</v>
       </c>
@@ -6038,10 +6040,10 @@
       </c>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
-      <c r="U30" s="117" t="s">
+      <c r="U30" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V30" s="95"/>
+      <c r="V30" s="100"/>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="25" t="b">
@@ -6058,7 +6060,7 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="25"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" ht="16">
       <c r="A31" s="23" t="s">
         <v>212</v>
       </c>
@@ -6077,11 +6079,11 @@
       <c r="F31" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="23"/>
       <c r="K31" s="25" t="b">
         <v>0</v>
@@ -6092,10 +6094,10 @@
       <c r="M31" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N31" s="117" t="s">
+      <c r="N31" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O31" s="95"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="23" t="s">
         <v>69</v>
       </c>
@@ -6105,10 +6107,10 @@
       </c>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="U31" s="117" t="s">
+      <c r="U31" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V31" s="95"/>
+      <c r="V31" s="100"/>
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
       <c r="Y31" s="25" t="b">
@@ -6125,7 +6127,7 @@
       <c r="AD31" s="25"/>
       <c r="AE31" s="25"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" ht="16">
       <c r="A32" s="23" t="s">
         <v>217</v>
       </c>
@@ -6144,11 +6146,11 @@
       <c r="F32" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="23"/>
       <c r="K32" s="25" t="b">
         <v>0</v>
@@ -6159,10 +6161,10 @@
       <c r="M32" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N32" s="117" t="s">
+      <c r="N32" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="95"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="23" t="s">
         <v>69</v>
       </c>
@@ -6172,10 +6174,10 @@
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
-      <c r="U32" s="117" t="s">
+      <c r="U32" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="95"/>
+      <c r="V32" s="100"/>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="25" t="b">
@@ -6192,7 +6194,7 @@
       <c r="AD32" s="25"/>
       <c r="AE32" s="25"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" ht="16">
       <c r="A33" s="23" t="s">
         <v>223</v>
       </c>
@@ -6211,11 +6213,11 @@
       <c r="F33" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="23"/>
       <c r="K33" s="25" t="b">
         <v>0</v>
@@ -6226,23 +6228,23 @@
       <c r="M33" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N33" s="117" t="s">
+      <c r="N33" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="95"/>
-      <c r="P33" s="117" t="s">
+      <c r="O33" s="100"/>
+      <c r="P33" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q33" s="95"/>
+      <c r="Q33" s="100"/>
       <c r="R33" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
-      <c r="U33" s="117" t="s">
+      <c r="U33" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V33" s="95"/>
+      <c r="V33" s="100"/>
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
       <c r="Y33" s="25" t="b">
@@ -6259,7 +6261,7 @@
       <c r="AD33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" ht="16">
       <c r="A34" s="23" t="s">
         <v>228</v>
       </c>
@@ -6278,11 +6280,11 @@
       <c r="F34" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="G34" s="117" t="s">
+      <c r="G34" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="23"/>
       <c r="K34" s="25" t="b">
         <v>0</v>
@@ -6293,10 +6295,10 @@
       <c r="M34" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N34" s="117" t="s">
+      <c r="N34" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="95"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="23" t="s">
         <v>69</v>
       </c>
@@ -6306,10 +6308,10 @@
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
-      <c r="U34" s="117" t="s">
+      <c r="U34" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V34" s="95"/>
+      <c r="V34" s="100"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="25" t="b">
@@ -6326,7 +6328,7 @@
       <c r="AD34" s="25"/>
       <c r="AE34" s="25"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" ht="16">
       <c r="A35" s="23" t="s">
         <v>233</v>
       </c>
@@ -6345,11 +6347,11 @@
       <c r="F35" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
       <c r="J35" s="23"/>
       <c r="K35" s="25" t="b">
         <v>0</v>
@@ -6360,23 +6362,23 @@
       <c r="M35" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="117" t="s">
+      <c r="N35" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="95"/>
-      <c r="P35" s="117" t="s">
+      <c r="O35" s="100"/>
+      <c r="P35" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q35" s="95"/>
+      <c r="Q35" s="100"/>
       <c r="R35" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
-      <c r="U35" s="117" t="s">
+      <c r="U35" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V35" s="95"/>
+      <c r="V35" s="100"/>
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="25" t="b">
@@ -6393,7 +6395,7 @@
       <c r="AD35" s="25"/>
       <c r="AE35" s="25"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="16">
       <c r="A36" s="23" t="s">
         <v>238</v>
       </c>
@@ -6412,10 +6414,10 @@
       <c r="F36" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="95"/>
+      <c r="H36" s="100"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="25" t="b">
@@ -6427,10 +6429,10 @@
       <c r="M36" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N36" s="117" t="s">
+      <c r="N36" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="95"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="23" t="s">
         <v>69</v>
       </c>
@@ -6440,10 +6442,10 @@
       </c>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
-      <c r="U36" s="117" t="s">
+      <c r="U36" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V36" s="95"/>
+      <c r="V36" s="100"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="25" t="b">
@@ -6460,7 +6462,7 @@
       <c r="AD36" s="25"/>
       <c r="AE36" s="25"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" ht="16">
       <c r="A37" s="23" t="s">
         <v>243</v>
       </c>
@@ -6479,11 +6481,11 @@
       <c r="F37" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
       <c r="J37" s="23"/>
       <c r="K37" s="25" t="b">
         <v>0</v>
@@ -6494,10 +6496,10 @@
       <c r="M37" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N37" s="117" t="s">
+      <c r="N37" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O37" s="95"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="23" t="s">
         <v>69</v>
       </c>
@@ -6507,10 +6509,10 @@
       </c>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
-      <c r="U37" s="117" t="s">
+      <c r="U37" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V37" s="95"/>
+      <c r="V37" s="100"/>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="25" t="b">
@@ -6527,7 +6529,7 @@
       <c r="AD37" s="25"/>
       <c r="AE37" s="25"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" ht="16">
       <c r="A38" s="23" t="s">
         <v>248</v>
       </c>
@@ -6546,11 +6548,11 @@
       <c r="F38" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
       <c r="J38" s="23"/>
       <c r="K38" s="25" t="b">
         <v>0</v>
@@ -6561,10 +6563,10 @@
       <c r="M38" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N38" s="117" t="s">
+      <c r="N38" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="95"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="23" t="s">
         <v>69</v>
       </c>
@@ -6574,10 +6576,10 @@
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
-      <c r="U38" s="117" t="s">
+      <c r="U38" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V38" s="95"/>
+      <c r="V38" s="100"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="25" t="b">
@@ -6594,7 +6596,7 @@
       <c r="AD38" s="25"/>
       <c r="AE38" s="25"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" ht="16">
       <c r="A39" s="23" t="s">
         <v>253</v>
       </c>
@@ -6613,11 +6615,11 @@
       <c r="F39" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
       <c r="J39" s="23"/>
       <c r="K39" s="25" t="b">
         <v>0</v>
@@ -6628,10 +6630,10 @@
       <c r="M39" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N39" s="117" t="s">
+      <c r="N39" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="95"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="23" t="s">
         <v>69</v>
       </c>
@@ -6641,10 +6643,10 @@
       </c>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
-      <c r="U39" s="117" t="s">
+      <c r="U39" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V39" s="95"/>
+      <c r="V39" s="100"/>
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
       <c r="Y39" s="25" t="b">
@@ -6661,7 +6663,7 @@
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" ht="16">
       <c r="A40" s="23" t="s">
         <v>258</v>
       </c>
@@ -6680,11 +6682,11 @@
       <c r="F40" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="117" t="s">
+      <c r="G40" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="23"/>
       <c r="K40" s="25" t="b">
         <v>0</v>
@@ -6695,23 +6697,23 @@
       <c r="M40" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N40" s="117" t="s">
+      <c r="N40" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="117" t="s">
+      <c r="O40" s="100"/>
+      <c r="P40" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="95"/>
+      <c r="Q40" s="100"/>
       <c r="R40" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
-      <c r="U40" s="117" t="s">
+      <c r="U40" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V40" s="95"/>
+      <c r="V40" s="100"/>
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
       <c r="Y40" s="25" t="b">
@@ -6728,7 +6730,7 @@
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" ht="16">
       <c r="A41" s="23" t="s">
         <v>262</v>
       </c>
@@ -6797,7 +6799,7 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="68">
       <c r="A42" s="27" t="s">
         <v>269</v>
       </c>
@@ -6816,11 +6818,11 @@
       <c r="F42" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="G42" s="118" t="s">
+      <c r="G42" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
       <c r="J42" s="27"/>
       <c r="K42" s="29" t="b">
         <v>0</v>
@@ -6831,10 +6833,10 @@
       <c r="M42" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="N42" s="118" t="s">
+      <c r="N42" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="95"/>
+      <c r="O42" s="100"/>
       <c r="P42" s="27" t="s">
         <v>69</v>
       </c>
@@ -6844,10 +6846,10 @@
       </c>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
-      <c r="U42" s="118" t="s">
+      <c r="U42" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="V42" s="95"/>
+      <c r="V42" s="100"/>
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
       <c r="Y42" s="29" t="b">
@@ -6866,7 +6868,7 @@
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" ht="16">
       <c r="A43" s="23" t="s">
         <v>276</v>
       </c>
@@ -6885,11 +6887,11 @@
       <c r="F43" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
       <c r="J43" s="23"/>
       <c r="K43" s="25" t="b">
         <v>0</v>
@@ -6900,23 +6902,23 @@
       <c r="M43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N43" s="117" t="s">
+      <c r="N43" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="95"/>
-      <c r="P43" s="117" t="s">
+      <c r="O43" s="100"/>
+      <c r="P43" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q43" s="95"/>
+      <c r="Q43" s="100"/>
       <c r="R43" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
-      <c r="U43" s="117" t="s">
+      <c r="U43" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="95"/>
+      <c r="V43" s="100"/>
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
       <c r="Y43" s="25" t="b">
@@ -6929,13 +6931,13 @@
       <c r="AB43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC43" s="119" t="s">
+      <c r="AC43" s="124" t="s">
         <v>281</v>
       </c>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="105"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="107"/>
+    </row>
+    <row r="44" spans="1:31" ht="16">
       <c r="A44" s="23" t="s">
         <v>282</v>
       </c>
@@ -6954,11 +6956,11 @@
       <c r="F44" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
       <c r="J44" s="23"/>
       <c r="K44" s="25" t="b">
         <v>0</v>
@@ -6969,10 +6971,10 @@
       <c r="M44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N44" s="117" t="s">
+      <c r="N44" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="95"/>
+      <c r="O44" s="100"/>
       <c r="P44" s="23" t="s">
         <v>69</v>
       </c>
@@ -6982,10 +6984,10 @@
       </c>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
-      <c r="U44" s="117" t="s">
+      <c r="U44" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V44" s="95"/>
+      <c r="V44" s="100"/>
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
       <c r="Y44" s="25" t="b">
@@ -6998,11 +7000,11 @@
       <c r="AB44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC44" s="106"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="107"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AC44" s="108"/>
+      <c r="AD44" s="100"/>
+      <c r="AE44" s="109"/>
+    </row>
+    <row r="45" spans="1:31" ht="16">
       <c r="A45" s="23" t="s">
         <v>287</v>
       </c>
@@ -7021,11 +7023,11 @@
       <c r="F45" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G45" s="117" t="s">
+      <c r="G45" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
       <c r="J45" s="23"/>
       <c r="K45" s="25" t="b">
         <v>0</v>
@@ -7036,10 +7038,10 @@
       <c r="M45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N45" s="117" t="s">
+      <c r="N45" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="95"/>
+      <c r="O45" s="100"/>
       <c r="P45" s="23" t="s">
         <v>69</v>
       </c>
@@ -7049,10 +7051,10 @@
       </c>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
-      <c r="U45" s="117" t="s">
+      <c r="U45" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V45" s="95"/>
+      <c r="V45" s="100"/>
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
       <c r="Y45" s="25" t="b">
@@ -7065,11 +7067,11 @@
       <c r="AB45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="107"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="100"/>
+      <c r="AE45" s="109"/>
+    </row>
+    <row r="46" spans="1:31" ht="16">
       <c r="A46" s="23" t="s">
         <v>292</v>
       </c>
@@ -7088,10 +7090,10 @@
       <c r="F46" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="95"/>
+      <c r="H46" s="100"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="25" t="b">
@@ -7103,10 +7105,10 @@
       <c r="M46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N46" s="117" t="s">
+      <c r="N46" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="95"/>
+      <c r="O46" s="100"/>
       <c r="P46" s="23" t="s">
         <v>70</v>
       </c>
@@ -7136,11 +7138,11 @@
       <c r="AB46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC46" s="106"/>
-      <c r="AD46" s="95"/>
-      <c r="AE46" s="107"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="109"/>
+    </row>
+    <row r="47" spans="1:31" ht="16">
       <c r="A47" s="23" t="s">
         <v>299</v>
       </c>
@@ -7159,11 +7161,11 @@
       <c r="F47" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="23"/>
       <c r="K47" s="25" t="b">
         <v>0</v>
@@ -7174,10 +7176,10 @@
       <c r="M47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N47" s="117" t="s">
+      <c r="N47" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="95"/>
+      <c r="O47" s="100"/>
       <c r="P47" s="23" t="s">
         <v>69</v>
       </c>
@@ -7187,10 +7189,10 @@
       </c>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
-      <c r="U47" s="117" t="s">
+      <c r="U47" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V47" s="95"/>
+      <c r="V47" s="100"/>
       <c r="W47" s="23"/>
       <c r="X47" s="23"/>
       <c r="Y47" s="25" t="b">
@@ -7203,11 +7205,11 @@
       <c r="AB47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="107"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AC47" s="108"/>
+      <c r="AD47" s="100"/>
+      <c r="AE47" s="109"/>
+    </row>
+    <row r="48" spans="1:31" ht="16">
       <c r="A48" s="23" t="s">
         <v>304</v>
       </c>
@@ -7226,10 +7228,10 @@
       <c r="F48" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="G48" s="117" t="s">
+      <c r="G48" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="H48" s="95"/>
+      <c r="H48" s="100"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="25" t="b">
@@ -7241,23 +7243,23 @@
       <c r="M48" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N48" s="117" t="s">
+      <c r="N48" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="95"/>
-      <c r="P48" s="117" t="s">
+      <c r="O48" s="100"/>
+      <c r="P48" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q48" s="95"/>
+      <c r="Q48" s="100"/>
       <c r="R48" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
-      <c r="U48" s="117" t="s">
+      <c r="U48" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V48" s="95"/>
+      <c r="V48" s="100"/>
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
       <c r="Y48" s="25" t="b">
@@ -7274,7 +7276,7 @@
       <c r="AD48" s="25"/>
       <c r="AE48" s="25"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" ht="16">
       <c r="A49" s="23" t="s">
         <v>308</v>
       </c>
@@ -7293,11 +7295,11 @@
       <c r="F49" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
       <c r="J49" s="23"/>
       <c r="K49" s="25" t="b">
         <v>0</v>
@@ -7308,23 +7310,23 @@
       <c r="M49" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N49" s="117" t="s">
+      <c r="N49" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="95"/>
-      <c r="P49" s="117" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q49" s="95"/>
+      <c r="Q49" s="100"/>
       <c r="R49" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
-      <c r="U49" s="117" t="s">
+      <c r="U49" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V49" s="95"/>
+      <c r="V49" s="100"/>
       <c r="W49" s="23"/>
       <c r="X49" s="23"/>
       <c r="Y49" s="25" t="b">
@@ -7341,7 +7343,7 @@
       <c r="AD49" s="25"/>
       <c r="AE49" s="25"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" ht="16">
       <c r="A50" s="23" t="s">
         <v>312</v>
       </c>
@@ -7360,11 +7362,11 @@
       <c r="F50" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="23"/>
       <c r="K50" s="25" t="b">
         <v>0</v>
@@ -7375,23 +7377,23 @@
       <c r="M50" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N50" s="117" t="s">
+      <c r="N50" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="95"/>
-      <c r="P50" s="117" t="s">
+      <c r="O50" s="100"/>
+      <c r="P50" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q50" s="95"/>
+      <c r="Q50" s="100"/>
       <c r="R50" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
-      <c r="U50" s="117" t="s">
+      <c r="U50" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V50" s="95"/>
+      <c r="V50" s="100"/>
       <c r="W50" s="23"/>
       <c r="X50" s="23"/>
       <c r="Y50" s="25" t="b">
@@ -7408,7 +7410,7 @@
       <c r="AD50" s="25"/>
       <c r="AE50" s="25"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" ht="16">
       <c r="A51" s="23" t="s">
         <v>317</v>
       </c>
@@ -7427,11 +7429,11 @@
       <c r="F51" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
       <c r="J51" s="23"/>
       <c r="K51" s="25" t="b">
         <v>0</v>
@@ -7442,10 +7444,10 @@
       <c r="M51" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N51" s="117" t="s">
+      <c r="N51" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="95"/>
+      <c r="O51" s="100"/>
       <c r="P51" s="23" t="s">
         <v>69</v>
       </c>
@@ -7455,10 +7457,10 @@
       </c>
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
-      <c r="U51" s="117" t="s">
+      <c r="U51" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V51" s="95"/>
+      <c r="V51" s="100"/>
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
       <c r="Y51" s="25" t="b">
@@ -7475,7 +7477,7 @@
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" ht="16">
       <c r="A52" s="23" t="s">
         <v>321</v>
       </c>
@@ -7494,11 +7496,11 @@
       <c r="F52" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="G52" s="117" t="s">
+      <c r="G52" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
       <c r="J52" s="23"/>
       <c r="K52" s="25" t="b">
         <v>0</v>
@@ -7509,10 +7511,10 @@
       <c r="M52" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N52" s="117" t="s">
+      <c r="N52" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="95"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="23" t="s">
         <v>69</v>
       </c>
@@ -7522,10 +7524,10 @@
       </c>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
-      <c r="U52" s="117" t="s">
+      <c r="U52" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V52" s="95"/>
+      <c r="V52" s="100"/>
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
       <c r="Y52" s="25" t="b">
@@ -7571,70 +7573,65 @@
   </sheetData>
   <autoFilter ref="A1:AB1000" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="172">
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
     <mergeCell ref="AC43:AE47"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="U45:V45"/>
@@ -7659,26 +7656,86 @@
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="U16:V16"/>
@@ -7688,61 +7745,6 @@
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="U22:V22"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7770,92 +7772,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13">
-      <c r="D1" s="102"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="2:7" ht="13">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="129" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" customHeight="1">
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" spans="2:7" ht="29">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="2:7" ht="23">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
     </row>
     <row r="10" spans="2:7" ht="23">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="2:7" ht="13">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="2:7" ht="13">
       <c r="B12" s="37" t="s">
@@ -7864,10 +7866,10 @@
       <c r="C12" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
     </row>
     <row r="13" spans="2:7" ht="13">
       <c r="B13" s="39" t="s">
@@ -7876,10 +7878,10 @@
       <c r="C13" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="2:7" ht="13">
       <c r="B14" s="41" t="s">
@@ -7888,22 +7890,22 @@
       <c r="C14" s="42">
         <v>45577</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1">
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="13">
       <c r="B17" s="43" t="s">
@@ -7916,22 +7918,22 @@
         <v>335</v>
       </c>
       <c r="E17" s="46"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="28">
       <c r="B18" s="47">
         <v>1</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="95" t="s">
         <v>336</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="125" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7939,13 +7941,13 @@
       <c r="B19" s="47">
         <v>2</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="95" t="s">
         <v>338</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="95"/>
+      <c r="F19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="31.5" customHeight="1">
       <c r="B20" s="47">
@@ -7957,7 +7959,7 @@
       <c r="D20" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="40.5" customHeight="1">
       <c r="B21" s="44">
@@ -7969,41 +7971,41 @@
       <c r="D21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="95"/>
+      <c r="F21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="29.25" customHeight="1">
       <c r="B22" s="44">
         <v>5</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="96" t="s">
         <v>342</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="95"/>
+      <c r="F22" s="100"/>
     </row>
     <row r="23" spans="2:9" ht="27.75" customHeight="1">
       <c r="B23" s="44">
         <v>6</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="97" t="s">
         <v>343</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="95"/>
+      <c r="F23" s="100"/>
     </row>
     <row r="24" spans="2:9" ht="42">
       <c r="C24" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="126" t="s">
         <v>345</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="122"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="55"/>
     </row>
   </sheetData>
@@ -8042,18 +8044,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="13">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="100"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="6" spans="2:5" ht="19.5" customHeight="1"/>
     <row r="7" spans="2:5" ht="24">
@@ -8067,16 +8069,16 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="23">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="100"/>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="132" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="128"/>
     </row>
     <row r="11" spans="2:5" ht="13">
       <c r="B11" s="37" t="s">
@@ -8210,23 +8212,23 @@
       <c r="E24" s="73"/>
     </row>
     <row r="25" spans="2:6" ht="13">
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="133" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="2:6" ht="13">
-      <c r="C26" s="129"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
     </row>
     <row r="27" spans="2:6" ht="13">
-      <c r="C27" s="130"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="110"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8259,81 +8261,81 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="13">
-      <c r="E3" s="102"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="115" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="O3" s="105"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="13">
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
     </row>
     <row r="5" spans="1:15" ht="13">
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
     </row>
     <row r="6" spans="1:15" ht="13">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="107"/>
+      <c r="C6" s="116"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="A7" s="100"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="112"/>
     </row>
     <row r="8" spans="1:15" ht="97.5" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -8341,15 +8343,15 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:15" ht="66.75" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -8357,109 +8359,109 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:15" ht="15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:15" ht="141" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="C15" s="116"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:15" ht="13">
-      <c r="A16" s="100"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="74" t="s">
@@ -8467,193 +8469,196 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
     </row>
     <row r="21" spans="1:13" ht="143.25" customHeight="1">
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="119" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
     </row>
     <row r="28" spans="1:13" ht="13">
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="13">
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:13" ht="13">
-      <c r="C30" s="108"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
     </row>
     <row r="31" spans="1:13" ht="13">
-      <c r="J31" s="103" t="s">
+      <c r="J31" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="107"/>
     </row>
     <row r="32" spans="1:13" ht="13">
-      <c r="J32" s="106"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="109"/>
     </row>
     <row r="33" spans="10:12" ht="13">
-      <c r="J33" s="106"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="107"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="10:12" ht="13">
-      <c r="J34" s="108"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J31:L34"/>
+    <mergeCell ref="E3:M12"/>
+    <mergeCell ref="N3:O7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="K13:N14"/>
@@ -8661,9 +8666,6 @@
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:M30"/>
     <mergeCell ref="C27:D30"/>
-    <mergeCell ref="J31:L34"/>
-    <mergeCell ref="E3:M12"/>
-    <mergeCell ref="N3:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8681,7 +8683,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="16">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -8767,7 +8769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="16">
       <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
@@ -8786,11 +8788,11 @@
       <c r="F2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="23"/>
       <c r="K2" s="25" t="b">
         <v>0</v>
@@ -8801,10 +8803,10 @@
       <c r="M2" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="95"/>
+      <c r="O2" s="100"/>
       <c r="P2" s="23" t="s">
         <v>69</v>
       </c>
@@ -8814,10 +8816,10 @@
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="95"/>
+      <c r="V2" s="100"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="25" t="b">
@@ -8831,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="16">
       <c r="A3" s="23" t="s">
         <v>71</v>
       </c>
@@ -8850,11 +8852,11 @@
       <c r="F3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="23"/>
       <c r="K3" s="25" t="b">
         <v>0</v>
@@ -8865,23 +8867,23 @@
       <c r="M3" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="100"/>
+      <c r="P3" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="95"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
-      <c r="U3" s="117" t="s">
+      <c r="U3" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="95"/>
+      <c r="V3" s="100"/>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="25" t="b">
@@ -8895,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="16">
       <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
@@ -8908,10 +8910,10 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="25" t="b">
@@ -8923,14 +8925,14 @@
       <c r="M4" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="117" t="s">
+      <c r="O4" s="100"/>
+      <c r="P4" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="95"/>
+      <c r="Q4" s="100"/>
       <c r="R4" s="25" t="b">
         <v>0</v>
       </c>
@@ -8955,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="16">
       <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
@@ -8974,11 +8976,11 @@
       <c r="F5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="23"/>
       <c r="K5" s="25" t="b">
         <v>0</v>
@@ -8989,23 +8991,23 @@
       <c r="M5" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="117" t="s">
+      <c r="N5" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="117" t="s">
+      <c r="O5" s="100"/>
+      <c r="P5" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="95"/>
+      <c r="Q5" s="100"/>
       <c r="R5" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
-      <c r="U5" s="117" t="s">
+      <c r="U5" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="95"/>
+      <c r="V5" s="100"/>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
       <c r="Y5" s="25" t="b">
@@ -9019,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="16">
       <c r="A6" s="23" t="s">
         <v>86</v>
       </c>
@@ -9038,11 +9040,11 @@
       <c r="F6" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="23"/>
       <c r="K6" s="25" t="b">
         <v>0</v>
@@ -9053,10 +9055,10 @@
       <c r="M6" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="117" t="s">
+      <c r="N6" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="23" t="s">
         <v>69</v>
       </c>
@@ -9066,10 +9068,10 @@
       </c>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="117" t="s">
+      <c r="U6" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="95"/>
+      <c r="V6" s="100"/>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="25" t="b">
@@ -9083,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="16">
       <c r="A7" s="23" t="s">
         <v>91</v>
       </c>
@@ -9102,11 +9104,11 @@
       <c r="F7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="23"/>
       <c r="K7" s="25" t="b">
         <v>0</v>
@@ -9117,10 +9119,10 @@
       <c r="M7" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="117" t="s">
+      <c r="N7" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="23" t="s">
         <v>96</v>
       </c>
@@ -9130,10 +9132,10 @@
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
-      <c r="U7" s="117" t="s">
+      <c r="U7" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="95"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="25" t="b">
@@ -9147,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="16">
       <c r="A8" s="23" t="s">
         <v>97</v>
       </c>
@@ -9166,11 +9168,11 @@
       <c r="F8" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
       <c r="J8" s="23"/>
       <c r="K8" s="25" t="b">
         <v>0</v>
@@ -9181,10 +9183,10 @@
       <c r="M8" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N8" s="117" t="s">
+      <c r="N8" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="23" t="s">
         <v>69</v>
       </c>
@@ -9194,10 +9196,10 @@
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="95"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="25" t="b">
@@ -9211,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="16">
       <c r="A9" s="23" t="s">
         <v>102</v>
       </c>
@@ -9230,11 +9232,11 @@
       <c r="F9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="23"/>
       <c r="K9" s="25" t="b">
         <v>0</v>
@@ -9245,23 +9247,23 @@
       <c r="M9" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="117" t="s">
+      <c r="O9" s="100"/>
+      <c r="P9" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="95"/>
+      <c r="Q9" s="100"/>
       <c r="R9" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="95"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="25" t="b">
@@ -9275,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="16">
       <c r="A10" s="23" t="s">
         <v>107</v>
       </c>
@@ -9294,11 +9296,11 @@
       <c r="F10" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="23"/>
       <c r="K10" s="25" t="b">
         <v>0</v>
@@ -9309,23 +9311,23 @@
       <c r="M10" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N10" s="117" t="s">
+      <c r="N10" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="117" t="s">
+      <c r="O10" s="100"/>
+      <c r="P10" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="95"/>
+      <c r="Q10" s="100"/>
       <c r="R10" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
-      <c r="U10" s="117" t="s">
+      <c r="U10" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="95"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="25" t="b">
@@ -9339,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="16">
       <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
@@ -9358,11 +9360,11 @@
       <c r="F11" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="23"/>
       <c r="K11" s="25" t="b">
         <v>0</v>
@@ -9373,23 +9375,23 @@
       <c r="M11" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N11" s="117" t="s">
+      <c r="N11" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="117" t="s">
+      <c r="O11" s="100"/>
+      <c r="P11" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="95"/>
+      <c r="Q11" s="100"/>
       <c r="R11" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="117" t="s">
+      <c r="U11" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="95"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="23"/>
       <c r="X11" s="23"/>
       <c r="Y11" s="25" t="b">
@@ -9403,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="16">
       <c r="A12" s="23" t="s">
         <v>117</v>
       </c>
@@ -9422,11 +9424,11 @@
       <c r="F12" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="23"/>
       <c r="K12" s="25" t="b">
         <v>0</v>
@@ -9437,23 +9439,23 @@
       <c r="M12" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="117" t="s">
+      <c r="N12" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="95"/>
-      <c r="P12" s="117" t="s">
+      <c r="O12" s="100"/>
+      <c r="P12" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="95"/>
+      <c r="Q12" s="100"/>
       <c r="R12" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
-      <c r="U12" s="117" t="s">
+      <c r="U12" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="95"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="25" t="b">
@@ -9467,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="16">
       <c r="A13" s="23" t="s">
         <v>122</v>
       </c>
@@ -9486,11 +9488,11 @@
       <c r="F13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="23"/>
       <c r="K13" s="25" t="b">
         <v>0</v>
@@ -9501,23 +9503,23 @@
       <c r="M13" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="117" t="s">
+      <c r="N13" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="95"/>
-      <c r="P13" s="117" t="s">
+      <c r="O13" s="100"/>
+      <c r="P13" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="95"/>
+      <c r="Q13" s="100"/>
       <c r="R13" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="117" t="s">
+      <c r="U13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="95"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="25" t="b">
@@ -9531,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="16">
       <c r="A14" s="23" t="s">
         <v>127</v>
       </c>
@@ -9550,11 +9552,11 @@
       <c r="F14" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="23"/>
       <c r="K14" s="25" t="b">
         <v>0</v>
@@ -9565,10 +9567,10 @@
       <c r="M14" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="117" t="s">
+      <c r="N14" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="95"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="23" t="s">
         <v>69</v>
       </c>
@@ -9578,10 +9580,10 @@
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="117" t="s">
+      <c r="U14" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V14" s="95"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="25" t="b">
@@ -9595,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="16">
       <c r="A15" s="23" t="s">
         <v>131</v>
       </c>
@@ -9614,11 +9616,11 @@
       <c r="F15" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="23"/>
       <c r="K15" s="25" t="b">
         <v>0</v>
@@ -9629,23 +9631,23 @@
       <c r="M15" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="117" t="s">
+      <c r="N15" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="95"/>
-      <c r="P15" s="117" t="s">
+      <c r="O15" s="100"/>
+      <c r="P15" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="95"/>
+      <c r="Q15" s="100"/>
       <c r="R15" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
-      <c r="U15" s="117" t="s">
+      <c r="U15" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V15" s="95"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="25" t="b">
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="16">
       <c r="A16" s="23" t="s">
         <v>136</v>
       </c>
@@ -9678,11 +9680,11 @@
       <c r="F16" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="23"/>
       <c r="K16" s="25" t="b">
         <v>0</v>
@@ -9693,10 +9695,10 @@
       <c r="M16" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="117" t="s">
+      <c r="N16" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="95"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="23" t="s">
         <v>69</v>
       </c>
@@ -9706,10 +9708,10 @@
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="117" t="s">
+      <c r="U16" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V16" s="95"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="25" t="b">
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="16">
       <c r="A17" s="23" t="s">
         <v>142</v>
       </c>
@@ -9742,11 +9744,11 @@
       <c r="F17" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="23"/>
       <c r="K17" s="25" t="b">
         <v>0</v>
@@ -9757,10 +9759,10 @@
       <c r="M17" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="95"/>
+      <c r="O17" s="100"/>
       <c r="P17" s="23" t="s">
         <v>69</v>
       </c>
@@ -9770,10 +9772,10 @@
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
-      <c r="U17" s="117" t="s">
+      <c r="U17" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="95"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="25" t="b">
@@ -9787,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="16">
       <c r="A18" s="23" t="s">
         <v>147</v>
       </c>
@@ -9806,11 +9808,11 @@
       <c r="F18" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="23"/>
       <c r="K18" s="25" t="b">
         <v>0</v>
@@ -9821,23 +9823,23 @@
       <c r="M18" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="117" t="s">
+      <c r="O18" s="100"/>
+      <c r="P18" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q18" s="95"/>
+      <c r="Q18" s="100"/>
       <c r="R18" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
-      <c r="U18" s="117" t="s">
+      <c r="U18" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="95"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
       <c r="Y18" s="25" t="b">
@@ -9851,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="16">
       <c r="A19" s="23" t="s">
         <v>152</v>
       </c>
@@ -9870,11 +9872,11 @@
       <c r="F19" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="23"/>
       <c r="K19" s="25" t="b">
         <v>0</v>
@@ -9885,23 +9887,23 @@
       <c r="M19" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="117" t="s">
+      <c r="N19" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="117" t="s">
+      <c r="O19" s="100"/>
+      <c r="P19" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="95"/>
+      <c r="Q19" s="100"/>
       <c r="R19" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="117" t="s">
+      <c r="U19" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="95"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="25" t="b">
@@ -9915,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="16">
       <c r="A20" s="23" t="s">
         <v>157</v>
       </c>
@@ -9934,11 +9936,11 @@
       <c r="F20" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="23"/>
       <c r="K20" s="25" t="b">
         <v>0</v>
@@ -9949,23 +9951,23 @@
       <c r="M20" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="117" t="s">
+      <c r="N20" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="117" t="s">
+      <c r="O20" s="100"/>
+      <c r="P20" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="95"/>
+      <c r="Q20" s="100"/>
       <c r="R20" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
-      <c r="U20" s="117" t="s">
+      <c r="U20" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V20" s="95"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="25" t="b">
@@ -9979,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="16">
       <c r="A21" s="23" t="s">
         <v>162</v>
       </c>
@@ -9998,11 +10000,11 @@
       <c r="F21" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="23"/>
       <c r="K21" s="25" t="b">
         <v>0</v>
@@ -10013,23 +10015,23 @@
       <c r="M21" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="117" t="s">
+      <c r="N21" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="117" t="s">
+      <c r="O21" s="100"/>
+      <c r="P21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="95"/>
+      <c r="Q21" s="100"/>
       <c r="R21" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
-      <c r="U21" s="117" t="s">
+      <c r="U21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V21" s="95"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="25" t="b">
@@ -10043,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="16">
       <c r="A22" s="23" t="s">
         <v>167</v>
       </c>
@@ -10062,11 +10064,11 @@
       <c r="F22" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="23"/>
       <c r="K22" s="25" t="b">
         <v>0</v>
@@ -10077,10 +10079,10 @@
       <c r="M22" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="117" t="s">
+      <c r="N22" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="23" t="s">
         <v>69</v>
       </c>
@@ -10090,10 +10092,10 @@
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
-      <c r="U22" s="117" t="s">
+      <c r="U22" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V22" s="95"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="25" t="b">
@@ -10107,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="16">
       <c r="A23" s="23" t="s">
         <v>172</v>
       </c>
@@ -10126,11 +10128,11 @@
       <c r="F23" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G23" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="23"/>
       <c r="K23" s="25" t="b">
         <v>0</v>
@@ -10141,10 +10143,10 @@
       <c r="M23" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="117" t="s">
+      <c r="N23" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="95"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="23" t="s">
         <v>69</v>
       </c>
@@ -10154,10 +10156,10 @@
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
-      <c r="U23" s="117" t="s">
+      <c r="U23" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="95"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="25" t="b">
@@ -10171,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="16">
       <c r="A24" s="23" t="s">
         <v>177</v>
       </c>
@@ -10190,10 +10192,10 @@
       <c r="F24" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="95"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="25" t="b">
@@ -10205,10 +10207,10 @@
       <c r="M24" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N24" s="117" t="s">
+      <c r="N24" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="95"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="23" t="s">
         <v>69</v>
       </c>
@@ -10218,10 +10220,10 @@
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="117" t="s">
+      <c r="U24" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V24" s="95"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="25" t="b">
@@ -10235,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="16">
       <c r="A25" s="23" t="s">
         <v>182</v>
       </c>
@@ -10254,11 +10256,11 @@
       <c r="F25" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="23"/>
       <c r="K25" s="25" t="b">
         <v>0</v>
@@ -10269,23 +10271,23 @@
       <c r="M25" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="117" t="s">
+      <c r="N25" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="95"/>
-      <c r="P25" s="117" t="s">
+      <c r="O25" s="100"/>
+      <c r="P25" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="95"/>
+      <c r="Q25" s="100"/>
       <c r="R25" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="117" t="s">
+      <c r="U25" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V25" s="95"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
       <c r="Y25" s="25" t="b">
@@ -10299,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="16">
       <c r="A26" s="23" t="s">
         <v>187</v>
       </c>
@@ -10318,11 +10320,11 @@
       <c r="F26" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="23"/>
       <c r="K26" s="25" t="b">
         <v>0</v>
@@ -10333,10 +10335,10 @@
       <c r="M26" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="117" t="s">
+      <c r="N26" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="95"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="23" t="s">
         <v>69</v>
       </c>
@@ -10346,10 +10348,10 @@
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="117" t="s">
+      <c r="U26" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V26" s="95"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="25" t="b">
@@ -10363,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="16">
       <c r="A27" s="23" t="s">
         <v>192</v>
       </c>
@@ -10382,10 +10384,10 @@
       <c r="F27" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="117" t="s">
+      <c r="G27" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="H27" s="95"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="25" t="b">
@@ -10397,23 +10399,23 @@
       <c r="M27" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N27" s="117" t="s">
+      <c r="N27" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="95"/>
-      <c r="P27" s="117" t="s">
+      <c r="O27" s="100"/>
+      <c r="P27" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="95"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
-      <c r="U27" s="117" t="s">
+      <c r="U27" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V27" s="95"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
       <c r="Y27" s="25" t="b">
@@ -10427,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="16">
       <c r="A28" s="23" t="s">
         <v>197</v>
       </c>
@@ -10446,11 +10448,11 @@
       <c r="F28" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="117" t="s">
+      <c r="G28" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="23"/>
       <c r="K28" s="25" t="b">
         <v>0</v>
@@ -10461,10 +10463,10 @@
       <c r="M28" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N28" s="117" t="s">
+      <c r="N28" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="95"/>
+      <c r="O28" s="100"/>
       <c r="P28" s="23" t="s">
         <v>69</v>
       </c>
@@ -10474,10 +10476,10 @@
       </c>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
-      <c r="U28" s="117" t="s">
+      <c r="U28" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V28" s="95"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
       <c r="Y28" s="25" t="b">
@@ -10491,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="16">
       <c r="A29" s="23" t="s">
         <v>202</v>
       </c>
@@ -10510,11 +10512,11 @@
       <c r="F29" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="23"/>
       <c r="K29" s="25" t="b">
         <v>0</v>
@@ -10525,23 +10527,23 @@
       <c r="M29" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N29" s="117" t="s">
+      <c r="N29" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="95"/>
-      <c r="P29" s="117" t="s">
+      <c r="O29" s="100"/>
+      <c r="P29" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q29" s="95"/>
+      <c r="Q29" s="100"/>
       <c r="R29" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
-      <c r="U29" s="117" t="s">
+      <c r="U29" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V29" s="95"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
       <c r="Y29" s="25" t="b">
@@ -10555,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="16">
       <c r="A30" s="23" t="s">
         <v>207</v>
       </c>
@@ -10574,11 +10576,11 @@
       <c r="F30" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="23"/>
       <c r="K30" s="25" t="b">
         <v>0</v>
@@ -10589,10 +10591,10 @@
       <c r="M30" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N30" s="117" t="s">
+      <c r="N30" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="95"/>
+      <c r="O30" s="100"/>
       <c r="P30" s="23" t="s">
         <v>69</v>
       </c>
@@ -10602,10 +10604,10 @@
       </c>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
-      <c r="U30" s="117" t="s">
+      <c r="U30" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V30" s="95"/>
+      <c r="V30" s="100"/>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="25" t="b">
@@ -10619,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="16">
       <c r="A31" s="23" t="s">
         <v>212</v>
       </c>
@@ -10638,11 +10640,11 @@
       <c r="F31" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="23"/>
       <c r="K31" s="25" t="b">
         <v>0</v>
@@ -10653,10 +10655,10 @@
       <c r="M31" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N31" s="117" t="s">
+      <c r="N31" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O31" s="95"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="23" t="s">
         <v>69</v>
       </c>
@@ -10666,10 +10668,10 @@
       </c>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="U31" s="117" t="s">
+      <c r="U31" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V31" s="95"/>
+      <c r="V31" s="100"/>
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
       <c r="Y31" s="25" t="b">
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="16">
       <c r="A32" s="23" t="s">
         <v>217</v>
       </c>
@@ -10702,11 +10704,11 @@
       <c r="F32" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="23"/>
       <c r="K32" s="25" t="b">
         <v>0</v>
@@ -10717,10 +10719,10 @@
       <c r="M32" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N32" s="117" t="s">
+      <c r="N32" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="95"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="23" t="s">
         <v>69</v>
       </c>
@@ -10730,10 +10732,10 @@
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
-      <c r="U32" s="117" t="s">
+      <c r="U32" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="95"/>
+      <c r="V32" s="100"/>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="25" t="b">
@@ -10747,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" ht="16">
       <c r="A33" s="23" t="s">
         <v>223</v>
       </c>
@@ -10766,11 +10768,11 @@
       <c r="F33" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="23"/>
       <c r="K33" s="25" t="b">
         <v>0</v>
@@ -10781,23 +10783,23 @@
       <c r="M33" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N33" s="117" t="s">
+      <c r="N33" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="95"/>
-      <c r="P33" s="117" t="s">
+      <c r="O33" s="100"/>
+      <c r="P33" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q33" s="95"/>
+      <c r="Q33" s="100"/>
       <c r="R33" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
-      <c r="U33" s="117" t="s">
+      <c r="U33" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V33" s="95"/>
+      <c r="V33" s="100"/>
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
       <c r="Y33" s="25" t="b">
@@ -10811,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" ht="16">
       <c r="A34" s="23" t="s">
         <v>228</v>
       </c>
@@ -10830,11 +10832,11 @@
       <c r="F34" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="G34" s="117" t="s">
+      <c r="G34" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="23"/>
       <c r="K34" s="25" t="b">
         <v>0</v>
@@ -10845,10 +10847,10 @@
       <c r="M34" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N34" s="117" t="s">
+      <c r="N34" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="95"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="23" t="s">
         <v>69</v>
       </c>
@@ -10858,10 +10860,10 @@
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
-      <c r="U34" s="117" t="s">
+      <c r="U34" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V34" s="95"/>
+      <c r="V34" s="100"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="25" t="b">
@@ -10875,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" ht="16">
       <c r="A35" s="23" t="s">
         <v>233</v>
       </c>
@@ -10894,11 +10896,11 @@
       <c r="F35" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
       <c r="J35" s="23"/>
       <c r="K35" s="25" t="b">
         <v>0</v>
@@ -10909,23 +10911,23 @@
       <c r="M35" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="117" t="s">
+      <c r="N35" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="95"/>
-      <c r="P35" s="117" t="s">
+      <c r="O35" s="100"/>
+      <c r="P35" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q35" s="95"/>
+      <c r="Q35" s="100"/>
       <c r="R35" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
-      <c r="U35" s="117" t="s">
+      <c r="U35" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V35" s="95"/>
+      <c r="V35" s="100"/>
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="25" t="b">
@@ -10939,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" ht="16">
       <c r="A36" s="23" t="s">
         <v>238</v>
       </c>
@@ -10958,10 +10960,10 @@
       <c r="F36" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="95"/>
+      <c r="H36" s="100"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="25" t="b">
@@ -10973,10 +10975,10 @@
       <c r="M36" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N36" s="117" t="s">
+      <c r="N36" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="95"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="23" t="s">
         <v>69</v>
       </c>
@@ -10986,10 +10988,10 @@
       </c>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
-      <c r="U36" s="117" t="s">
+      <c r="U36" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V36" s="95"/>
+      <c r="V36" s="100"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="25" t="b">
@@ -11003,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="16">
       <c r="A37" s="23" t="s">
         <v>243</v>
       </c>
@@ -11022,11 +11024,11 @@
       <c r="F37" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
       <c r="J37" s="23"/>
       <c r="K37" s="25" t="b">
         <v>0</v>
@@ -11037,10 +11039,10 @@
       <c r="M37" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N37" s="117" t="s">
+      <c r="N37" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O37" s="95"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="23" t="s">
         <v>69</v>
       </c>
@@ -11050,10 +11052,10 @@
       </c>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
-      <c r="U37" s="117" t="s">
+      <c r="U37" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V37" s="95"/>
+      <c r="V37" s="100"/>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="25" t="b">
@@ -11067,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" ht="16">
       <c r="A38" s="23" t="s">
         <v>248</v>
       </c>
@@ -11086,11 +11088,11 @@
       <c r="F38" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
       <c r="J38" s="23"/>
       <c r="K38" s="25" t="b">
         <v>0</v>
@@ -11101,10 +11103,10 @@
       <c r="M38" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N38" s="117" t="s">
+      <c r="N38" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="95"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="23" t="s">
         <v>69</v>
       </c>
@@ -11114,10 +11116,10 @@
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
-      <c r="U38" s="117" t="s">
+      <c r="U38" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V38" s="95"/>
+      <c r="V38" s="100"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="25" t="b">
@@ -11131,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" ht="16">
       <c r="A39" s="23" t="s">
         <v>253</v>
       </c>
@@ -11150,11 +11152,11 @@
       <c r="F39" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
       <c r="J39" s="23"/>
       <c r="K39" s="25" t="b">
         <v>0</v>
@@ -11165,10 +11167,10 @@
       <c r="M39" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N39" s="117" t="s">
+      <c r="N39" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="95"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="23" t="s">
         <v>69</v>
       </c>
@@ -11178,10 +11180,10 @@
       </c>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
-      <c r="U39" s="117" t="s">
+      <c r="U39" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V39" s="95"/>
+      <c r="V39" s="100"/>
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
       <c r="Y39" s="25" t="b">
@@ -11195,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" ht="16">
       <c r="A40" s="23" t="s">
         <v>258</v>
       </c>
@@ -11214,11 +11216,11 @@
       <c r="F40" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="117" t="s">
+      <c r="G40" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="23"/>
       <c r="K40" s="25" t="b">
         <v>0</v>
@@ -11229,23 +11231,23 @@
       <c r="M40" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N40" s="117" t="s">
+      <c r="N40" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="117" t="s">
+      <c r="O40" s="100"/>
+      <c r="P40" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="95"/>
+      <c r="Q40" s="100"/>
       <c r="R40" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
-      <c r="U40" s="117" t="s">
+      <c r="U40" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V40" s="95"/>
+      <c r="V40" s="100"/>
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
       <c r="Y40" s="25" t="b">
@@ -11259,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" ht="16">
       <c r="A41" s="23" t="s">
         <v>262</v>
       </c>
@@ -11295,10 +11297,10 @@
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="117" t="s">
+      <c r="P41" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q41" s="95"/>
+      <c r="Q41" s="100"/>
       <c r="R41" s="25" t="b">
         <v>0</v>
       </c>
@@ -11323,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" ht="16">
       <c r="A42" s="23" t="s">
         <v>276</v>
       </c>
@@ -11342,11 +11344,11 @@
       <c r="F42" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="G42" s="117" t="s">
+      <c r="G42" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
       <c r="J42" s="23"/>
       <c r="K42" s="25" t="b">
         <v>0</v>
@@ -11357,23 +11359,23 @@
       <c r="M42" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N42" s="117" t="s">
+      <c r="N42" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="95"/>
-      <c r="P42" s="117" t="s">
+      <c r="O42" s="100"/>
+      <c r="P42" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q42" s="95"/>
+      <c r="Q42" s="100"/>
       <c r="R42" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
-      <c r="U42" s="117" t="s">
+      <c r="U42" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V42" s="95"/>
+      <c r="V42" s="100"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="25" t="b">
@@ -11387,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" ht="16">
       <c r="A43" s="23" t="s">
         <v>282</v>
       </c>
@@ -11406,11 +11408,11 @@
       <c r="F43" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
       <c r="J43" s="23"/>
       <c r="K43" s="25" t="b">
         <v>0</v>
@@ -11421,10 +11423,10 @@
       <c r="M43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N43" s="117" t="s">
+      <c r="N43" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="95"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="23" t="s">
         <v>69</v>
       </c>
@@ -11434,10 +11436,10 @@
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
-      <c r="U43" s="117" t="s">
+      <c r="U43" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="95"/>
+      <c r="V43" s="100"/>
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
       <c r="Y43" s="25" t="b">
@@ -11451,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" ht="16">
       <c r="A44" s="23" t="s">
         <v>287</v>
       </c>
@@ -11470,11 +11472,11 @@
       <c r="F44" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
       <c r="J44" s="23"/>
       <c r="K44" s="25" t="b">
         <v>0</v>
@@ -11485,10 +11487,10 @@
       <c r="M44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N44" s="117" t="s">
+      <c r="N44" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="95"/>
+      <c r="O44" s="100"/>
       <c r="P44" s="23" t="s">
         <v>69</v>
       </c>
@@ -11498,10 +11500,10 @@
       </c>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
-      <c r="U44" s="117" t="s">
+      <c r="U44" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V44" s="95"/>
+      <c r="V44" s="100"/>
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
       <c r="Y44" s="25" t="b">
@@ -11515,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" ht="16">
       <c r="A45" s="23" t="s">
         <v>292</v>
       </c>
@@ -11534,10 +11536,10 @@
       <c r="F45" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G45" s="117" t="s">
+      <c r="G45" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="H45" s="95"/>
+      <c r="H45" s="100"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="25" t="b">
@@ -11549,10 +11551,10 @@
       <c r="M45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N45" s="117" t="s">
+      <c r="N45" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="95"/>
+      <c r="O45" s="100"/>
       <c r="P45" s="23" t="s">
         <v>70</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" ht="16">
       <c r="A46" s="23" t="s">
         <v>299</v>
       </c>
@@ -11602,11 +11604,11 @@
       <c r="F46" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
       <c r="J46" s="23"/>
       <c r="K46" s="25" t="b">
         <v>0</v>
@@ -11617,10 +11619,10 @@
       <c r="M46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N46" s="117" t="s">
+      <c r="N46" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="95"/>
+      <c r="O46" s="100"/>
       <c r="P46" s="23" t="s">
         <v>69</v>
       </c>
@@ -11630,10 +11632,10 @@
       </c>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
-      <c r="U46" s="117" t="s">
+      <c r="U46" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="95"/>
+      <c r="V46" s="100"/>
       <c r="W46" s="23"/>
       <c r="X46" s="23"/>
       <c r="Y46" s="25" t="b">
@@ -11647,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" ht="16">
       <c r="A47" s="23" t="s">
         <v>304</v>
       </c>
@@ -11666,10 +11668,10 @@
       <c r="F47" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="H47" s="95"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="25" t="b">
@@ -11681,23 +11683,23 @@
       <c r="M47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N47" s="117" t="s">
+      <c r="N47" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="95"/>
-      <c r="P47" s="117" t="s">
+      <c r="O47" s="100"/>
+      <c r="P47" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="Q47" s="95"/>
+      <c r="Q47" s="100"/>
       <c r="R47" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
-      <c r="U47" s="117" t="s">
+      <c r="U47" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V47" s="95"/>
+      <c r="V47" s="100"/>
       <c r="W47" s="23"/>
       <c r="X47" s="23"/>
       <c r="Y47" s="25" t="b">
@@ -11711,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" ht="16">
       <c r="A48" s="23" t="s">
         <v>308</v>
       </c>
@@ -11730,11 +11732,11 @@
       <c r="F48" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="117" t="s">
+      <c r="G48" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="23"/>
       <c r="K48" s="25" t="b">
         <v>0</v>
@@ -11745,23 +11747,23 @@
       <c r="M48" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N48" s="117" t="s">
+      <c r="N48" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="95"/>
-      <c r="P48" s="117" t="s">
+      <c r="O48" s="100"/>
+      <c r="P48" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q48" s="95"/>
+      <c r="Q48" s="100"/>
       <c r="R48" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
-      <c r="U48" s="117" t="s">
+      <c r="U48" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V48" s="95"/>
+      <c r="V48" s="100"/>
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
       <c r="Y48" s="25" t="b">
@@ -11775,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" ht="16">
       <c r="A49" s="23" t="s">
         <v>312</v>
       </c>
@@ -11794,11 +11796,11 @@
       <c r="F49" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
       <c r="J49" s="23"/>
       <c r="K49" s="25" t="b">
         <v>0</v>
@@ -11809,23 +11811,23 @@
       <c r="M49" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N49" s="117" t="s">
+      <c r="N49" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="95"/>
-      <c r="P49" s="117" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="Q49" s="95"/>
+      <c r="Q49" s="100"/>
       <c r="R49" s="25" t="b">
         <v>0</v>
       </c>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
-      <c r="U49" s="117" t="s">
+      <c r="U49" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V49" s="95"/>
+      <c r="V49" s="100"/>
       <c r="W49" s="23"/>
       <c r="X49" s="23"/>
       <c r="Y49" s="25" t="b">
@@ -11839,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" ht="16">
       <c r="A50" s="23" t="s">
         <v>317</v>
       </c>
@@ -11858,11 +11860,11 @@
       <c r="F50" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="23"/>
       <c r="K50" s="25" t="b">
         <v>0</v>
@@ -11873,10 +11875,10 @@
       <c r="M50" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N50" s="117" t="s">
+      <c r="N50" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="95"/>
+      <c r="O50" s="100"/>
       <c r="P50" s="23" t="s">
         <v>69</v>
       </c>
@@ -11886,10 +11888,10 @@
       </c>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
-      <c r="U50" s="117" t="s">
+      <c r="U50" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V50" s="95"/>
+      <c r="V50" s="100"/>
       <c r="W50" s="23"/>
       <c r="X50" s="23"/>
       <c r="Y50" s="25" t="b">
@@ -11903,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" ht="16">
       <c r="A51" s="23" t="s">
         <v>321</v>
       </c>
@@ -11922,11 +11924,11 @@
       <c r="F51" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
       <c r="J51" s="23"/>
       <c r="K51" s="25" t="b">
         <v>0</v>
@@ -11937,10 +11939,10 @@
       <c r="M51" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="N51" s="117" t="s">
+      <c r="N51" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="95"/>
+      <c r="O51" s="100"/>
       <c r="P51" s="23" t="s">
         <v>69</v>
       </c>
@@ -11950,10 +11952,10 @@
       </c>
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
-      <c r="U51" s="117" t="s">
+      <c r="U51" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V51" s="95"/>
+      <c r="V51" s="100"/>
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
       <c r="Y51" s="25" t="b">
@@ -11978,65 +11980,101 @@
         <f>COUNTA(A2:A1000)</f>
         <v>50</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="136" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="C55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="P48:Q48"/>
@@ -12051,55 +12089,74 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="U16:V16"/>
@@ -12109,61 +12166,6 @@
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="U22:V22"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12176,7 +12178,7 @@
   </sheetPr>
   <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -12189,125 +12191,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13">
-      <c r="D1" s="102"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="2:10" ht="13">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="129" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" customHeight="1">
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="2:10" ht="29">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="2:10" ht="23">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="2:10" ht="23">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="2:10" ht="14">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
     </row>
     <row r="12" spans="2:10" ht="13">
       <c r="B12" s="75" t="s">
@@ -12316,13 +12318,13 @@
       <c r="C12" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="2:10" ht="13">
       <c r="B13" s="77" t="s">
@@ -12331,13 +12333,13 @@
       <c r="C13" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="2:10" ht="13">
       <c r="B14" s="79" t="s">
@@ -12346,31 +12348,31 @@
       <c r="C14" s="80">
         <v>45578</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1">
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="17" spans="2:6" ht="13">
       <c r="B17" s="81" t="s">
@@ -12391,7 +12393,7 @@
       <c r="B18" s="81">
         <v>1</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="98" t="s">
         <v>370</v>
       </c>
       <c r="D18" s="85" t="s">

--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55032A4-F7EF-714B-B91E-67D14A68E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3BCE-37FD-1443-801C-ACBE1BB964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3201,7 +3201,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3398,7 +3398,7 @@
   </sheetPr>
   <dimension ref="A3:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel_xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3BCE-37FD-1443-801C-ACBE1BB964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA2663F-6F4C-0B42-BF91-04D19B94BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 User Report" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -2377,6 +2376,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2386,24 +2392,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2456,44 +2455,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9194800" cy="5372100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image2.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="5041900"/>
-          <a:ext cx="9194800" cy="5372100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2574,7 +2535,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9255125" y="9159874"/>
+          <a:off x="9266331" y="9221133"/>
           <a:ext cx="6734175" cy="796925"/>
           <a:chOff x="2243550" y="4293375"/>
           <a:chExt cx="6030300" cy="89700"/>
@@ -2635,7 +2596,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2657475" y="5559425"/>
+          <a:off x="2657475" y="5581090"/>
           <a:ext cx="2143125" cy="3181350"/>
           <a:chOff x="3052075" y="2001475"/>
           <a:chExt cx="1841400" cy="2751900"/>
@@ -2673,44 +2634,6 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8102600" cy="4292600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="381000"/>
-          <a:ext cx="8102600" cy="4292600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -3200,8 +3123,8 @@
   </sheetPr>
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3398,8 +3321,8 @@
   </sheetPr>
   <dimension ref="A3:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3411,7 +3334,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="13">
-      <c r="E3" s="104"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -3420,11 +3343,11 @@
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="105" t="s">
+      <c r="N3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
     </row>
     <row r="4" spans="1:16" ht="13">
       <c r="E4" s="100"/>
@@ -3436,9 +3359,9 @@
       <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
-      <c r="N4" s="108"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="100"/>
-      <c r="P4" s="109"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="13">
       <c r="E5" s="100"/>
@@ -3450,18 +3373,18 @@
       <c r="K5" s="100"/>
       <c r="L5" s="100"/>
       <c r="M5" s="100"/>
-      <c r="N5" s="108"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="100"/>
-      <c r="P5" s="109"/>
+      <c r="P5" s="112"/>
     </row>
     <row r="6" spans="1:16" ht="13">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="117"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -3471,14 +3394,14 @@
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="112"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="115"/>
     </row>
     <row r="7" spans="1:16" ht="13">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
@@ -3567,31 +3490,31 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="119" t="s">
+      <c r="K13" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="107"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
     </row>
     <row r="14" spans="1:16" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
     </row>
     <row r="15" spans="1:16" ht="13">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="117"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -3603,9 +3526,9 @@
       <c r="N15" s="100"/>
     </row>
     <row r="16" spans="1:16" ht="13">
-      <c r="A16" s="114"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -3725,12 +3648,12 @@
       <c r="N23" s="100"/>
     </row>
     <row r="24" spans="1:14" ht="16">
-      <c r="A24" s="120"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
@@ -3745,8 +3668,8 @@
     <row r="25" spans="1:14" ht="16">
       <c r="A25" s="100"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100"/>
       <c r="G25" s="100"/>
@@ -3761,8 +3684,8 @@
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="100"/>
       <c r="F26" s="100"/>
       <c r="G26" s="100"/>
@@ -3777,8 +3700,8 @@
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
       <c r="G27" s="100"/>
@@ -3807,26 +3730,26 @@
     <row r="29" spans="1:14" ht="16">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="107"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:14" ht="16">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="G30" s="108"/>
+      <c r="G30" s="111"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
-      <c r="J30" s="109"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:14" ht="13">
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="112"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
     </row>
     <row r="49" spans="7:16" ht="15.75" customHeight="1">
       <c r="G49" s="100"/>
@@ -3998,6 +3921,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E3:M12"/>
+    <mergeCell ref="N3:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="K13:N14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="E15:N28"/>
@@ -4005,11 +3933,6 @@
     <mergeCell ref="G49:P62"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="C24:D27"/>
-    <mergeCell ref="E3:M12"/>
-    <mergeCell ref="N3:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="K13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6934,8 +6857,8 @@
       <c r="AC43" s="124" t="s">
         <v>281</v>
       </c>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="107"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="110"/>
     </row>
     <row r="44" spans="1:31" ht="16">
       <c r="A44" s="23" t="s">
@@ -7000,9 +6923,9 @@
       <c r="AB44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC44" s="108"/>
+      <c r="AC44" s="111"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="109"/>
+      <c r="AE44" s="112"/>
     </row>
     <row r="45" spans="1:31" ht="16">
       <c r="A45" s="23" t="s">
@@ -7067,9 +6990,9 @@
       <c r="AB45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC45" s="108"/>
+      <c r="AC45" s="111"/>
       <c r="AD45" s="100"/>
-      <c r="AE45" s="109"/>
+      <c r="AE45" s="112"/>
     </row>
     <row r="46" spans="1:31" ht="16">
       <c r="A46" s="23" t="s">
@@ -7138,9 +7061,9 @@
       <c r="AB46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC46" s="108"/>
+      <c r="AC46" s="111"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="109"/>
+      <c r="AE46" s="112"/>
     </row>
     <row r="47" spans="1:31" ht="16">
       <c r="A47" s="23" t="s">
@@ -7205,9 +7128,9 @@
       <c r="AB47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC47" s="108"/>
+      <c r="AC47" s="111"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="109"/>
+      <c r="AE47" s="112"/>
     </row>
     <row r="48" spans="1:31" ht="16">
       <c r="A48" s="23" t="s">
@@ -7573,65 +7496,95 @@
   </sheetData>
   <autoFilter ref="A1:AB1000" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="172">
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
     <mergeCell ref="AC43:AE47"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="U45:V45"/>
@@ -7656,95 +7609,65 @@
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7758,7 +7681,7 @@
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7772,7 +7695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13">
-      <c r="D1" s="104"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="100"/>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
@@ -7918,7 +7841,7 @@
         <v>335</v>
       </c>
       <c r="E17" s="46"/>
-      <c r="F17" s="104"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -8030,7 +7953,7 @@
   </sheetPr>
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8215,20 +8138,20 @@
       <c r="C25" s="133" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="121" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="110"/>
     </row>
     <row r="26" spans="2:6" ht="13">
       <c r="C26" s="134"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
     </row>
     <row r="27" spans="2:6" ht="13">
       <c r="C27" s="135"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8249,8 +8172,8 @@
   </sheetPr>
   <dimension ref="A3:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="C21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8261,7 +8184,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="13">
-      <c r="E3" s="104"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -8270,10 +8193,10 @@
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="E4" s="100"/>
@@ -8285,8 +8208,8 @@
       <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="E5" s="100"/>
@@ -8298,17 +8221,17 @@
       <c r="K5" s="100"/>
       <c r="L5" s="100"/>
       <c r="M5" s="100"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
     </row>
     <row r="6" spans="1:15" ht="13">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="117"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -8318,13 +8241,13 @@
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="109"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
@@ -8334,8 +8257,8 @@
       <c r="K7" s="100"/>
       <c r="L7" s="100"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="115"/>
     </row>
     <row r="8" spans="1:15" ht="97.5" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -8415,31 +8338,31 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="105" t="s">
+      <c r="K13" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="107"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
     </row>
     <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="117"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -8450,9 +8373,9 @@
       <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:15" ht="13">
-      <c r="A16" s="114"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -8579,10 +8502,10 @@
       <c r="M26" s="100"/>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
       <c r="G27" s="100"/>
@@ -8594,8 +8517,8 @@
       <c r="M27" s="100"/>
     </row>
     <row r="28" spans="1:13" ht="13">
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="100"/>
       <c r="F28" s="100"/>
       <c r="G28" s="100"/>
@@ -8607,8 +8530,8 @@
       <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="13">
-      <c r="C29" s="108"/>
-      <c r="D29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="100"/>
       <c r="F29" s="100"/>
       <c r="G29" s="100"/>
@@ -8620,8 +8543,8 @@
       <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:13" ht="13">
-      <c r="C30" s="110"/>
-      <c r="D30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100"/>
       <c r="G30" s="100"/>
@@ -8633,26 +8556,26 @@
       <c r="M30" s="100"/>
     </row>
     <row r="31" spans="1:13" ht="13">
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="108" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="107"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="13">
-      <c r="J32" s="108"/>
+      <c r="J32" s="111"/>
       <c r="K32" s="100"/>
-      <c r="L32" s="109"/>
+      <c r="L32" s="112"/>
     </row>
     <row r="33" spans="10:12" ht="13">
-      <c r="J33" s="108"/>
+      <c r="J33" s="111"/>
       <c r="K33" s="100"/>
-      <c r="L33" s="109"/>
+      <c r="L33" s="112"/>
     </row>
     <row r="34" spans="10:12" ht="13">
-      <c r="J34" s="110"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8679,7 +8602,7 @@
   </sheetPr>
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -11996,118 +11919,42 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
@@ -12130,42 +11977,118 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12191,7 +12114,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13">
-      <c r="D1" s="104"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="100"/>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>

--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel_xml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasputraanugerah/Documents/Dimas/Lyra/Andera-Trial/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA2663F-6F4C-0B42-BF91-04D19B94BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F49030-BC95-6644-A230-B3169853C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 User Report" sheetId="1" r:id="rId1"/>
@@ -2376,13 +2376,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2392,17 +2385,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2454,6 +2454,124 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E124CE-BA1F-8468-D304-98E0AB41F55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="965200"/>
+          <a:ext cx="2540000" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="676275" cy="190500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78CEE31-C3E6-664B-8C0D-B6C4A9DBB0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11531600" y="3403600"/>
+          <a:ext cx="676275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2639,7 +2757,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2678,7 +2796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2881,7 +2999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3123,8 +3241,8 @@
   </sheetPr>
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3311,6 +3429,7 @@
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3321,7 +3440,7 @@
   </sheetPr>
   <dimension ref="A3:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3334,7 +3453,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="13">
-      <c r="E3" s="107"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -3343,11 +3462,11 @@
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="13">
       <c r="E4" s="100"/>
@@ -3359,9 +3478,9 @@
       <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
-      <c r="N4" s="111"/>
+      <c r="N4" s="108"/>
       <c r="O4" s="100"/>
-      <c r="P4" s="112"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="13">
       <c r="E5" s="100"/>
@@ -3373,18 +3492,18 @@
       <c r="K5" s="100"/>
       <c r="L5" s="100"/>
       <c r="M5" s="100"/>
-      <c r="N5" s="111"/>
+      <c r="N5" s="108"/>
       <c r="O5" s="100"/>
-      <c r="P5" s="112"/>
+      <c r="P5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="13">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="117"/>
+      <c r="C6" s="116"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -3394,14 +3513,14 @@
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="115"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="1:16" ht="13">
-      <c r="A7" s="105"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
@@ -3490,31 +3609,31 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="121" t="s">
+      <c r="K13" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
     </row>
     <row r="14" spans="1:16" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:16" ht="13">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="116"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -3526,9 +3645,9 @@
       <c r="N15" s="100"/>
     </row>
     <row r="16" spans="1:16" ht="13">
-      <c r="A16" s="105"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -3648,12 +3767,12 @@
       <c r="N23" s="100"/>
     </row>
     <row r="24" spans="1:14" ht="16">
-      <c r="A24" s="106"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="110"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
@@ -3668,8 +3787,8 @@
     <row r="25" spans="1:14" ht="16">
       <c r="A25" s="100"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100"/>
       <c r="G25" s="100"/>
@@ -3684,8 +3803,8 @@
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="100"/>
       <c r="F26" s="100"/>
       <c r="G26" s="100"/>
@@ -3700,8 +3819,8 @@
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
       <c r="G27" s="100"/>
@@ -3730,26 +3849,26 @@
     <row r="29" spans="1:14" ht="16">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
     </row>
     <row r="30" spans="1:14" ht="16">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="G30" s="111"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
-      <c r="J30" s="112"/>
+      <c r="J30" s="109"/>
     </row>
     <row r="31" spans="1:14" ht="13">
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="115"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="49" spans="7:16" ht="15.75" customHeight="1">
       <c r="G49" s="100"/>
@@ -3921,11 +4040,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E3:M12"/>
-    <mergeCell ref="N3:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="K13:N14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="E15:N28"/>
@@ -3933,6 +4047,11 @@
     <mergeCell ref="G49:P62"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="C24:D27"/>
+    <mergeCell ref="E3:M12"/>
+    <mergeCell ref="N3:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="K13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6857,8 +6976,8 @@
       <c r="AC43" s="124" t="s">
         <v>281</v>
       </c>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="110"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="107"/>
     </row>
     <row r="44" spans="1:31" ht="16">
       <c r="A44" s="23" t="s">
@@ -6923,9 +7042,9 @@
       <c r="AB44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC44" s="111"/>
+      <c r="AC44" s="108"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="112"/>
+      <c r="AE44" s="109"/>
     </row>
     <row r="45" spans="1:31" ht="16">
       <c r="A45" s="23" t="s">
@@ -6990,9 +7109,9 @@
       <c r="AB45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC45" s="111"/>
+      <c r="AC45" s="108"/>
       <c r="AD45" s="100"/>
-      <c r="AE45" s="112"/>
+      <c r="AE45" s="109"/>
     </row>
     <row r="46" spans="1:31" ht="16">
       <c r="A46" s="23" t="s">
@@ -7061,9 +7180,9 @@
       <c r="AB46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC46" s="111"/>
+      <c r="AC46" s="108"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="112"/>
+      <c r="AE46" s="109"/>
     </row>
     <row r="47" spans="1:31" ht="16">
       <c r="A47" s="23" t="s">
@@ -7128,9 +7247,9 @@
       <c r="AB47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="AC47" s="111"/>
+      <c r="AC47" s="108"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="112"/>
+      <c r="AE47" s="109"/>
     </row>
     <row r="48" spans="1:31" ht="16">
       <c r="A48" s="23" t="s">
@@ -7496,95 +7615,65 @@
   </sheetData>
   <autoFilter ref="A1:AB1000" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="172">
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
     <mergeCell ref="AC43:AE47"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="U45:V45"/>
@@ -7609,65 +7698,95 @@
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7695,7 +7814,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13">
-      <c r="D1" s="107"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="100"/>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
@@ -7841,7 +7960,7 @@
         <v>335</v>
       </c>
       <c r="E17" s="46"/>
-      <c r="F17" s="107"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -8138,20 +8257,20 @@
       <c r="C25" s="133" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="2:6" ht="13">
       <c r="C26" s="134"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
     </row>
     <row r="27" spans="2:6" ht="13">
       <c r="C27" s="135"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8172,7 +8291,7 @@
   </sheetPr>
   <dimension ref="A3:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
@@ -8184,7 +8303,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="13">
-      <c r="E3" s="107"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -8193,10 +8312,10 @@
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="O3" s="110"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="E4" s="100"/>
@@ -8208,8 +8327,8 @@
       <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="E5" s="100"/>
@@ -8221,17 +8340,17 @@
       <c r="K5" s="100"/>
       <c r="L5" s="100"/>
       <c r="M5" s="100"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
     </row>
     <row r="6" spans="1:15" ht="13">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="117"/>
+      <c r="C6" s="116"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -8241,13 +8360,13 @@
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="A7" s="105"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
@@ -8257,8 +8376,8 @@
       <c r="K7" s="100"/>
       <c r="L7" s="100"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="115"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="112"/>
     </row>
     <row r="8" spans="1:15" ht="97.5" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -8338,31 +8457,31 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="116"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -8373,9 +8492,9 @@
       <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:15" ht="13">
-      <c r="A16" s="105"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -8502,10 +8621,10 @@
       <c r="M26" s="100"/>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="119" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="110"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
       <c r="G27" s="100"/>
@@ -8517,8 +8636,8 @@
       <c r="M27" s="100"/>
     </row>
     <row r="28" spans="1:13" ht="13">
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="100"/>
       <c r="F28" s="100"/>
       <c r="G28" s="100"/>
@@ -8530,8 +8649,8 @@
       <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="13">
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="100"/>
       <c r="F29" s="100"/>
       <c r="G29" s="100"/>
@@ -8543,8 +8662,8 @@
       <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:13" ht="13">
-      <c r="C30" s="113"/>
-      <c r="D30" s="115"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100"/>
       <c r="G30" s="100"/>
@@ -8556,26 +8675,26 @@
       <c r="M30" s="100"/>
     </row>
     <row r="31" spans="1:13" ht="13">
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="109"/>
-      <c r="L31" s="110"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="107"/>
     </row>
     <row r="32" spans="1:13" ht="13">
-      <c r="J32" s="111"/>
+      <c r="J32" s="108"/>
       <c r="K32" s="100"/>
-      <c r="L32" s="112"/>
+      <c r="L32" s="109"/>
     </row>
     <row r="33" spans="10:12" ht="13">
-      <c r="J33" s="111"/>
+      <c r="J33" s="108"/>
       <c r="K33" s="100"/>
-      <c r="L33" s="112"/>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="10:12" ht="13">
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11919,42 +12038,118 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
@@ -11977,118 +12172,42 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12114,7 +12233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13">
-      <c r="D1" s="107"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="100"/>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
